--- a/診断者_メインメニュー画面_エビデンス.xlsx
+++ b/診断者_メインメニュー画面_エビデンス.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d800a10fdc61dec0/デスクトップ/各種資料/受託案件関連/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="370" documentId="8_{3D92C42B-9D2C-403B-8225-B1D0279B847F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C7DB765-3033-45D7-A795-2A60722B2583}"/>
+  <xr:revisionPtr revIDLastSave="534" documentId="8_{3D92C42B-9D2C-403B-8225-B1D0279B847F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{492029BD-F194-434B-B2AA-E71259FFF228}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="701" xr2:uid="{40BD3F05-1583-483D-916D-49B5A9F9D35B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="94">
   <si>
     <t>単体テスト_エビデンス</t>
     <rPh sb="0" eb="2">
@@ -248,103 +248,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン画面　→　メインメニュー画面</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メインメニュー画面　→　身長入力画面</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="16">
-      <t>シンチョウニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メインメニュー画面　→　体重入力画面</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>タイジュウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メインメニュー画面　→　視力入力画面</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シリョク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メインメニュー画面　→　聴力入力画面</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>チョウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メインメニュー画面　→　血圧入力画面</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ケツアツ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メインメニュー画面　→　ログアウト画面</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メニュー画面</t>
   </si>
   <si>
@@ -412,6 +315,209 @@
     <t>セッション情報チェック</t>
     <rPh sb="5" eb="7">
       <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>ログイン画面　→　メインメニュー画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-1：ログイン画面　→　メインメニュー画面</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインメニュー画面　→　身長入力画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインメニュー画面　→　体重入力画面</t>
+    <rPh sb="12" eb="14">
+      <t>タイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインメニュー画面　→　視力入力画面</t>
+    <rPh sb="12" eb="14">
+      <t>シリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインメニュー画面　→　聴力入力画面</t>
+    <rPh sb="12" eb="14">
+      <t>チョウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインメニュー画面　→　血圧入力画面</t>
+    <rPh sb="12" eb="14">
+      <t>ケツアツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>メインメニュー画面　→　ログイン画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-2：メインメニュー画面　→　身長入力画面</t>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>シンチョウニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-3：メインメニュー画面　→　体重入力画面</t>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>タイジュウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-4：メインメニュー画面　→　視力入力画面</t>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-5：メインメニュー画面　→　聴力入力画面</t>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チョウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-6：メインメニュー画面　→　血圧入力画面</t>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケツアツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-7：メインメニュー画面　→　ログイン画面</t>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>セッション情報設定処理</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッション情報クリア処理</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-1：セッション情報設定処理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-2：セッション情報クリア処理</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -663,7 +769,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -709,18 +815,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -745,6 +839,24 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -767,22 +879,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>968375</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>8263</xdr:rowOff>
+      <xdr:colOff>117928</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>207040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{073B7A48-00B5-5C9F-DF99-0D6EBFADBB7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BFE1226-C9D5-5638-B989-55C725B84BAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -798,8 +910,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269875" y="928688"/>
-          <a:ext cx="7683500" cy="6096325"/>
+          <a:off x="272144" y="916214"/>
+          <a:ext cx="6867070" cy="6003683"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -816,22 +928,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>293</xdr:row>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>286</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>679146</xdr:colOff>
-      <xdr:row>316</xdr:row>
-      <xdr:rowOff>145143</xdr:rowOff>
+      <xdr:colOff>9071</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>105556</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="図 33">
+        <xdr:cNvPr id="38" name="図 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37AC6370-F7F7-4921-871E-3CAA17B16BF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E402DC64-20C3-48B0-6668-74919BAD7046}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -847,228 +959,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="272143" y="68280643"/>
-          <a:ext cx="6757003" cy="5361214"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>245</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>679146</xdr:colOff>
-      <xdr:row>268</xdr:row>
-      <xdr:rowOff>145143</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="図 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8346D735-1192-4782-AE58-9602300B167F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="272143" y="57394929"/>
-          <a:ext cx="6757003" cy="5361214"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>197</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>679146</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>145142</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="図 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C93A7BEC-C9CD-401D-87D5-4FF9B5396058}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="272143" y="46509214"/>
-          <a:ext cx="6757003" cy="5361214"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>679146</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>145143</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="図 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96552036-C43A-4D21-ABC2-0630B40B731C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="272143" y="35623500"/>
-          <a:ext cx="6757003" cy="5361214"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>679146</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>145142</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="図 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F52AE3-2DB8-4DE5-B913-A7E8CC207299}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="272143" y="24964571"/>
-          <a:ext cx="6757003" cy="5361214"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>679146</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>145143</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="図 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF5A7541-1F41-4E82-9781-B29D107C0599}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="272143" y="14305643"/>
-          <a:ext cx="6757003" cy="5361214"/>
+          <a:off x="272144" y="66693143"/>
+          <a:ext cx="6086927" cy="5321627"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1081,21 +973,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1063625</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9072</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>105556</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
+        <xdr:cNvPr id="36" name="図 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41A1F42C-F111-BD78-D78E-394DDB08DF73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A38BFF4-4507-9939-F26B-A864455E6E99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1111,8 +1003,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269876" y="3897314"/>
-          <a:ext cx="5921374" cy="4500562"/>
+          <a:off x="272144" y="55580643"/>
+          <a:ext cx="6086928" cy="5321627"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1121,247 +1013,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>357188</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1206500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>45358</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B7BCA35-5964-46F1-993C-E7FF7823F502}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1841501" y="7461250"/>
-          <a:ext cx="2063749" cy="394608"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>206375</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>174626</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>103188</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79C0D8B1-4887-4BB1-9161-5D00B013CFA3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2055814" y="7096125"/>
-          <a:ext cx="2032000" cy="357188"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>746125</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>166686</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>912812</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF4E7A65-FC05-4155-A3F4-75C085392238}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4659313" y="6365874"/>
-          <a:ext cx="2595562" cy="1174751"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -65588"/>
-            <a:gd name="adj2" fmla="val 26287"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-            <a:t>パスワードに”</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
-            <a:t>Sasaki0209Kensuke</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-            <a:t>”</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-            <a:t>を入力した場合</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-            <a:t>でログインボタンクリック</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>671287</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>143963</xdr:rowOff>
+      <xdr:colOff>18144</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>113488</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9">
+        <xdr:cNvPr id="35" name="図 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35B6434E-FA82-AB32-9FF9-2731D6F706CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ED5C644-3353-951E-4DE8-7520A054D087}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1377,8 +1047,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="272145" y="20202072"/>
-          <a:ext cx="6749142" cy="5133248"/>
+          <a:off x="272144" y="44468143"/>
+          <a:ext cx="6096000" cy="5329559"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1390,22 +1060,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>671286</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>224645</xdr:rowOff>
+      <xdr:colOff>12848</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11">
+        <xdr:cNvPr id="22" name="図 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9DE59D6-2F4F-5EA8-1FAD-4183132357BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A057F7B7-114D-A842-3204-CA026B2A4862}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1421,8 +1091,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="272143" y="30861001"/>
-          <a:ext cx="6749143" cy="5213930"/>
+          <a:off x="272144" y="22243143"/>
+          <a:ext cx="6090704" cy="5324928"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1431,223 +1101,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>182253</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>129473</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>708396</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>192973</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E085C90-2DB9-4315-AA9C-386130DBC745}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1669967" y="16249402"/>
-          <a:ext cx="1741715" cy="517071"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>823850</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>117103</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>137721</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>180603</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{250467BC-A1F6-4044-8222-A0CA11B2DC8C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3527136" y="26895960"/>
-          <a:ext cx="1745014" cy="517072"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>170709</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>180603</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>700151</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>17317</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{553122C5-9E26-47FC-9DA3-8E0B2A6AC269}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1658423" y="38298746"/>
-          <a:ext cx="1745014" cy="517071"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>680357</xdr:colOff>
-      <xdr:row>196</xdr:row>
-      <xdr:rowOff>4865</xdr:rowOff>
+      <xdr:colOff>12846</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="図 16">
+        <xdr:cNvPr id="19" name="図 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2C59652-9701-E052-984B-29917EFAF1AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECF8E549-DC72-4880-805D-F2BC613A62FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1663,8 +1135,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="272144" y="41519930"/>
-          <a:ext cx="6758213" cy="5220936"/>
+          <a:off x="272143" y="70775286"/>
+          <a:ext cx="6090703" cy="5324928"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1673,91 +1145,289 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>823851</xdr:colOff>
-      <xdr:row>208</xdr:row>
-      <xdr:rowOff>180604</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>137722</xdr:colOff>
-      <xdr:row>211</xdr:row>
-      <xdr:rowOff>17319</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12846</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="正方形/長方形 19">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAED3ABE-318D-4B3A-9E76-C3C298B6669D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{795CD033-ECCE-4C8B-910D-D1F1A39D5083}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3527137" y="49184461"/>
-          <a:ext cx="1745014" cy="517072"/>
+          <a:off x="272143" y="59889571"/>
+          <a:ext cx="6090703" cy="5324928"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12846</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80EB4EA6-D4AB-43DA-8660-D4653620C55E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="272143" y="49003857"/>
+          <a:ext cx="6090703" cy="5324928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12846</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE1BBEAB-316F-4421-9213-5F96EFF18122}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="272143" y="38118143"/>
+          <a:ext cx="6090703" cy="5324928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12846</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2253092-AFF5-4D07-AEED-1AB63ECA7E0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="272143" y="27459214"/>
+          <a:ext cx="6090703" cy="5324928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12846</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29DDB65F-BF53-49C3-867C-FEF3A0E15053}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="272143" y="16800286"/>
+          <a:ext cx="6090703" cy="5324928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12846</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0BB7D2-32D8-C6CD-ACFB-0B9412036EBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="272143" y="11130643"/>
+          <a:ext cx="6090703" cy="5324928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>662215</xdr:colOff>
-      <xdr:row>243</xdr:row>
-      <xdr:rowOff>217636</xdr:rowOff>
+      <xdr:colOff>18143</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>113488</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="図 20">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF14EA69-FECC-7A60-2C2B-9702E51F96D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E7E4480-FE5C-6D91-D008-354113967168}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1773,8 +1443,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="272145" y="52178858"/>
-          <a:ext cx="6740070" cy="5206921"/>
+          <a:off x="272144" y="5687787"/>
+          <a:ext cx="6095999" cy="5329558"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1786,22 +1456,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>188851</xdr:colOff>
-      <xdr:row>260</xdr:row>
-      <xdr:rowOff>8248</xdr:rowOff>
+      <xdr:colOff>502331</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>201839</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>718293</xdr:colOff>
-      <xdr:row>262</xdr:row>
-      <xdr:rowOff>71747</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>471714</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="正方形/長方形 22">
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8870CDA4-A03A-4BA3-8932-0A3D77234C1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B7BCA35-5964-46F1-993C-E7FF7823F502}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1809,365 +1479,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1676565" y="60804962"/>
-          <a:ext cx="1745014" cy="517071"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>269</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>671286</xdr:colOff>
-      <xdr:row>291</xdr:row>
-      <xdr:rowOff>224646</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="図 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3F27CCB-C895-6E39-534B-1ED09A879390}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="272143" y="62837787"/>
-          <a:ext cx="6749143" cy="5213930"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>188852</xdr:colOff>
-      <xdr:row>311</xdr:row>
-      <xdr:rowOff>71747</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>718294</xdr:colOff>
-      <xdr:row>313</xdr:row>
-      <xdr:rowOff>135247</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13A4F5CC-ACAB-4123-89AE-A6E3BDD87E3F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1676566" y="72434533"/>
-          <a:ext cx="1745014" cy="517071"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>317</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>650574</xdr:colOff>
-      <xdr:row>339</xdr:row>
-      <xdr:rowOff>208643</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="図 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15524A8D-B1D7-6D70-445E-00EC0694E513}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="272143" y="73496714"/>
-          <a:ext cx="6728431" cy="5197929"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>679146</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>145144</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="図 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2474C866-0EF9-4B83-ACBD-015558505E99}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="272143" y="8636001"/>
-          <a:ext cx="6757003" cy="5361214"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>840938</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="図 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7646E80C-AB0B-32C4-860D-9839D0AC0787}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="269875" y="9652000"/>
-          <a:ext cx="8127563" cy="6230938"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>436562</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>103187</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="図 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB69C53-58C8-C6FB-6EEE-04DAD5FED420}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="269875" y="3897313"/>
-          <a:ext cx="6508750" cy="5627687"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>591911</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>25306</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>587375</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="正方形/長方形 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4426DD3F-61FD-4003-8E3E-5407736140BB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2076224" y="8296181"/>
-          <a:ext cx="2424339" cy="554132"/>
+          <a:off x="1990045" y="9518196"/>
+          <a:ext cx="2400526" cy="532947"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2209,22 +1522,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>122463</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>157616</xdr:rowOff>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>184829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>333376</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>150813</xdr:rowOff>
+      <xdr:colOff>976313</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>208643</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="吹き出し: 四角形 30">
+        <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05EFAFA0-42F6-CB4C-4857-54BEE4655F69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF4E7A65-FC05-4155-A3F4-75C085392238}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2232,8 +1545,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5250088" y="7277554"/>
-          <a:ext cx="2639788" cy="1144134"/>
+          <a:off x="5944054" y="8140472"/>
+          <a:ext cx="2597830" cy="1157742"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -2299,15 +1612,880 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>416151</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>49893</xdr:rowOff>
+      <xdr:colOff>825</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>20616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>526968</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>84116</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E085C90-2DB9-4315-AA9C-386130DBC745}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1488539" y="18635187"/>
+          <a:ext cx="1741715" cy="517072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>470064</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>17317</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>134937</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>31751</xdr:rowOff>
+      <xdr:colOff>999507</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>80817</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{250467BC-A1F6-4044-8222-A0CA11B2DC8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3173350" y="29290817"/>
+          <a:ext cx="1745014" cy="517071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1204851</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>225960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>518722</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>62674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{553122C5-9E26-47FC-9DA3-8E0B2A6AC269}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476994" y="40611960"/>
+          <a:ext cx="1745014" cy="517071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>497280</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>8246</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1026723</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>71747</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAED3ABE-318D-4B3A-9E76-C3C298B6669D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3200566" y="51506746"/>
+          <a:ext cx="1745014" cy="517072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7422</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>207819</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>536864</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>44533</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8870CDA4-A03A-4BA3-8932-0A3D77234C1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1495136" y="63045605"/>
+          <a:ext cx="1745014" cy="517071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>16495</xdr:colOff>
+      <xdr:row>327</xdr:row>
+      <xdr:rowOff>216891</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>545937</xdr:colOff>
+      <xdr:row>330</xdr:row>
+      <xdr:rowOff>53605</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13A4F5CC-ACAB-4123-89AE-A6E3BDD87E3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1504209" y="74620748"/>
+          <a:ext cx="1745014" cy="517071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>18144</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>113488</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{266FC480-8CA3-3C6A-163D-8882452015FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="272144" y="33355643"/>
+          <a:ext cx="6096000" cy="5329559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>335</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12846</xdr:colOff>
+      <xdr:row>358</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="図 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93EB2B4A-48A0-4085-0C0B-4C2D026B4009}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="272143" y="77805643"/>
+          <a:ext cx="6090703" cy="5324928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>272142</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>117928</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>19955</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A2F1911-4A9D-44B8-143B-A471361D5193}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="272142" y="33355643"/>
+          <a:ext cx="9289143" cy="5916383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99786</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>117764</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{620D5AB7-D7D2-1C9D-FF74-7F22E4CD0A30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="272143" y="27232429"/>
+          <a:ext cx="9271000" cy="6014192"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12846</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C36F2C97-6D94-4E34-AAE9-AC4EE850D815}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="272143" y="21789571"/>
+          <a:ext cx="6090703" cy="5324928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254001</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>199571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>199572</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>165891</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD2E87B-DF3E-3A89-0033-94271E6FD2DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="254001" y="9969500"/>
+          <a:ext cx="9388928" cy="6089534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9072</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>105556</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57108A41-4173-A482-0033-AA52CF5F9BB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="272144" y="4553857"/>
+          <a:ext cx="6086928" cy="5321628"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>492125</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>188591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>487589</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>55562</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4426DD3F-61FD-4003-8E3E-5407736140BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1979839" y="8371020"/>
+          <a:ext cx="2426607" cy="547328"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1093107</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66902</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88448</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>60099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="吹き出し: 四角形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05EFAFA0-42F6-CB4C-4857-54BEE4655F69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5011964" y="7795759"/>
+          <a:ext cx="2642055" cy="1127126"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -65588"/>
+            <a:gd name="adj2" fmla="val 26287"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>パスワードに”</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:t>Sasaki0209Kensuke</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>”</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>を入力した場合</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>でログインボタンクリック</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>325435</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>77107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2322,8 +2500,542 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1900464" y="14535831"/>
-          <a:ext cx="2147661" cy="672420"/>
+          <a:off x="597578" y="12795250"/>
+          <a:ext cx="9009065" cy="3061607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7938</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>180296</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9FCBBE0-55E4-4D82-8D01-BC2AFD637C45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1495652" y="25598439"/>
+          <a:ext cx="1697491" cy="590775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>117929</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A60A011-5C05-414D-9F36-ABFE91EED131}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="390072" y="29981072"/>
+          <a:ext cx="9080499" cy="3174999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>134938</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>150813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>116795</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>123598</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="吹き出し: 四角形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66BD211F-038B-4602-8423-A00CDA0043DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4053795" y="35774313"/>
+          <a:ext cx="3628571" cy="1106714"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -75452"/>
+            <a:gd name="adj2" fmla="val 1822"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>セッション情報がクリアされたことを確認。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>154215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>816429</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA88D721-4708-4BFF-BFAB-5CED195444AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5488215" y="11058072"/>
+          <a:ext cx="2893785" cy="1115786"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -42995"/>
+            <a:gd name="adj2" fmla="val 111522"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>メインメニュー画面に遷移する前に</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:t>session</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:t>MUser</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>情報が設定された</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>ことを確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12846</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{474C7A9F-329F-45C4-933D-90BEFF633EED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="272143" y="16119929"/>
+          <a:ext cx="6090703" cy="5324928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>988786</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1133929</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F755FDC-62A8-4BF5-A021-B5BA0DCC8AAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1260929" y="28221214"/>
+          <a:ext cx="1360714" cy="281215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>27215</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>45356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1197430</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>154214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3A96E6E-35DE-4081-9CF3-96EEE0F57B7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="299358" y="35895642"/>
+          <a:ext cx="2385786" cy="562429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1006929</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>308428</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{595B83DE-2633-4022-BB56-72C72EC68725}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1279072" y="34798000"/>
+          <a:ext cx="1732642" cy="308429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2366,21 +3078,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>581596</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>214312</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>17418</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>117928</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="図 36">
+        <xdr:cNvPr id="12" name="図 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F881A68-586E-739C-DD13-12A9FDA30B11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41FEF628-F586-3189-3F28-3E9107326199}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2389,301 +3101,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269875" y="15867063"/>
-          <a:ext cx="11059096" cy="7580312"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>71438</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>134938</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>611188</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="正方形/長方形 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9FCBBE0-55E4-4D82-8D01-BC2AFD637C45}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1555751" y="19915188"/>
-          <a:ext cx="9802812" cy="2000250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>272142</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>607785</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>4704</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="図 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0AB578B-E9E2-8810-2A0D-696E22A92BDF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="272142" y="23150286"/>
-          <a:ext cx="11103429" cy="7488632"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>127001</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>72571</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="正方形/長方形 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A60A011-5C05-414D-9F36-ABFE91EED131}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1487714" y="27132644"/>
-          <a:ext cx="4934857" cy="1197427"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>107725</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>132669</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>534081</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>105455</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="吹き出し: 四角形 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66BD211F-038B-4602-8423-A00CDA0043DA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7673296" y="27138312"/>
-          <a:ext cx="3628571" cy="1106714"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -75452"/>
-            <a:gd name="adj2" fmla="val 1822"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-            <a:t>セッション情報がクリアされたことを確認。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1060435</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="図 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{017D20FB-D787-D721-5870-72CD59F44216}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="272143" y="30634214"/>
-          <a:ext cx="8353863" cy="6404429"/>
+          <a:off x="272143" y="39478857"/>
+          <a:ext cx="6095275" cy="5334000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3016,41 +3442,41 @@
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+      <c r="C7" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="C8" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3081,21 +3507,21 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="2:24">
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="2:24" ht="18.5" thickBot="1"/>
     <row r="5" spans="2:24" ht="18.5" thickBot="1">
@@ -3132,8 +3558,8 @@
     </row>
     <row r="7" spans="2:24" ht="18.5" thickBot="1">
       <c r="L7" s="7"/>
-      <c r="M7" s="20" t="s">
-        <v>52</v>
+      <c r="M7" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -3168,7 +3594,7 @@
       <c r="L9" s="7"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
@@ -3215,12 +3641,12 @@
       <c r="L12" s="7"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="21" t="s">
-        <v>54</v>
+      <c r="O12" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="P12" s="5"/>
-      <c r="Q12" s="21" t="s">
-        <v>55</v>
+      <c r="Q12" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -3249,12 +3675,12 @@
       <c r="L14" s="7"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="21" t="s">
-        <v>56</v>
+      <c r="O14" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="P14" s="5"/>
-      <c r="Q14" s="21" t="s">
-        <v>57</v>
+      <c r="Q14" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
@@ -3283,8 +3709,8 @@
       <c r="L16" s="7"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="21" t="s">
-        <v>58</v>
+      <c r="O16" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -3406,7 +3832,7 @@
       <c r="M24" s="5"/>
       <c r="N24" s="7"/>
       <c r="O24" s="8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
@@ -3494,7 +3920,7 @@
       <c r="X29" s="5"/>
     </row>
     <row r="30" spans="2:24" ht="18.5" thickBot="1">
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="5"/>
@@ -3550,34 +3976,34 @@
       <c r="X31" s="5"/>
     </row>
     <row r="32" spans="2:24" ht="18.5" thickBot="1">
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="24" t="s">
+      <c r="H32" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="24" t="s">
+      <c r="I32" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J32" s="24" t="s">
+      <c r="J32" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K32" s="24" t="s">
+      <c r="K32" s="20" t="s">
         <v>19</v>
       </c>
       <c r="L32" s="7"/>
@@ -3595,22 +4021,22 @@
       <c r="X32" s="5"/>
     </row>
     <row r="33" spans="2:24" ht="18.5" thickBot="1">
-      <c r="B33" s="25">
+      <c r="B33" s="21">
         <v>1</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="26" t="s">
+      <c r="D33" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="26" t="s">
+      <c r="I33" s="22" t="s">
         <v>21</v>
       </c>
       <c r="J33" s="8"/>
@@ -3630,169 +4056,169 @@
       <c r="X33" s="5"/>
     </row>
     <row r="34" spans="2:24" ht="18.5" thickBot="1">
-      <c r="B34" s="25">
+      <c r="B34" s="21">
         <v>2</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="26" t="s">
+      <c r="D34" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="26" t="s">
+      <c r="I34" s="22" t="s">
         <v>21</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
     </row>
     <row r="35" spans="2:24" ht="26.5" thickBot="1">
-      <c r="B35" s="25">
+      <c r="B35" s="21">
         <v>3</v>
       </c>
-      <c r="C35" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="26" t="s">
+      <c r="C35" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="22" t="s">
         <v>54</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>61</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
-      <c r="I35" s="26" t="s">
+      <c r="I35" s="22" t="s">
         <v>21</v>
       </c>
       <c r="J35" s="8"/>
-      <c r="K35" s="26" t="s">
-        <v>62</v>
+      <c r="K35" s="22" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="2:24" ht="26.5" thickBot="1">
-      <c r="B36" s="25">
+      <c r="B36" s="21">
         <v>4</v>
       </c>
-      <c r="C36" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="26" t="s">
-        <v>61</v>
+      <c r="C36" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
-      <c r="I36" s="26" t="s">
+      <c r="I36" s="22" t="s">
         <v>21</v>
       </c>
       <c r="J36" s="8"/>
-      <c r="K36" s="26" t="s">
-        <v>64</v>
+      <c r="K36" s="22" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="2:24" ht="26.5" thickBot="1">
-      <c r="B37" s="25">
+      <c r="B37" s="21">
         <v>5</v>
       </c>
-      <c r="C37" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>61</v>
+      <c r="C37" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="26" t="s">
+      <c r="I37" s="22" t="s">
         <v>21</v>
       </c>
       <c r="J37" s="8"/>
-      <c r="K37" s="26" t="s">
-        <v>66</v>
+      <c r="K37" s="22" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="2:24" ht="26.5" thickBot="1">
-      <c r="B38" s="25">
+      <c r="B38" s="21">
         <v>6</v>
       </c>
-      <c r="C38" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>61</v>
+      <c r="C38" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="26" t="s">
+      <c r="I38" s="22" t="s">
         <v>21</v>
       </c>
       <c r="J38" s="8"/>
-      <c r="K38" s="26" t="s">
-        <v>68</v>
+      <c r="K38" s="22" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="2:24" ht="26.5" thickBot="1">
-      <c r="B39" s="25">
+      <c r="B39" s="21">
         <v>7</v>
       </c>
-      <c r="C39" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>61</v>
+      <c r="C39" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
-      <c r="I39" s="26" t="s">
+      <c r="I39" s="22" t="s">
         <v>21</v>
       </c>
       <c r="J39" s="8"/>
-      <c r="K39" s="26" t="s">
-        <v>69</v>
+      <c r="K39" s="22" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="2:24" ht="65.5" thickBot="1">
-      <c r="B40" s="25">
+      <c r="B40" s="21">
         <v>8</v>
       </c>
-      <c r="C40" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40" s="26" t="s">
+      <c r="C40" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="22" t="s">
         <v>23</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
-      <c r="I40" s="26" t="s">
+      <c r="I40" s="22" t="s">
         <v>21</v>
       </c>
       <c r="J40" s="8"/>
-      <c r="K40" s="26" t="s">
-        <v>71</v>
+      <c r="K40" s="22" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="2:24" ht="18.5" thickBot="1">
@@ -3820,7 +4246,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCADB66-303E-4B51-BBFE-A6AA599E2580}">
-  <dimension ref="B2:H293"/>
+  <dimension ref="B2:H311"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
@@ -3834,146 +4260,229 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="19" t="s">
-        <v>45</v>
-      </c>
+      <c r="B5" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="12" t="s">
+    <row r="14" spans="2:8">
+      <c r="B14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D14" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G14" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H14" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="12" t="s">
+    <row r="15" spans="2:8">
+      <c r="B15" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D15" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H15" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="162">
-      <c r="B9" s="13">
+    <row r="16" spans="2:8" ht="162">
+      <c r="B16" s="13">
         <v>10001</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F16" s="13">
         <v>28</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G16" s="13">
         <v>1</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H16" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
-      <c r="B10" t="s">
+    <row r="17" spans="2:8">
+      <c r="B17" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="149" spans="2:2">
-      <c r="B149" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="197" spans="2:2">
-      <c r="B197" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="245" spans="2:2">
-      <c r="B245" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="293" spans="2:2">
-      <c r="B293" s="19" t="s">
-        <v>51</v>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2">
+      <c r="B262" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2">
+      <c r="B311" s="15" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="9">
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3983,7 +4492,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A075E7E1-1AA8-486C-B4E0-C504231248B3}">
-  <dimension ref="B2:H9"/>
+  <dimension ref="B2:H88"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
@@ -3997,111 +4506,143 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="C3" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="12" t="s">
+    <row r="9" spans="2:8">
+      <c r="B9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="12" t="s">
+    <row r="10" spans="2:8">
+      <c r="B10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E10" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G10" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H10" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="162">
-      <c r="B8" s="13">
+    <row r="11" spans="2:8" ht="162">
+      <c r="B11" s="13">
         <v>10001</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F11" s="13">
         <v>28</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G11" s="13">
         <v>1</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H11" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
-      <c r="B9" t="s">
+    <row r="12" spans="2:8">
+      <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="15" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
